--- a/Doc/Journal-de-Travail_BamertMathieu.xlsx
+++ b/Doc/Journal-de-Travail_BamertMathieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pv23aha\Documents\GitHub\P_321_BitRuisseau\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC26DA5-E637-42DB-A0F6-8F3C31CD13EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFADB53-3E03-4EEF-85AA-F8FFE6FDAB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Journal de travail</t>
   </si>
   <si>
     <t>Auteur:</t>
-  </si>
-  <si>
-    <t>Nom Prénom</t>
   </si>
   <si>
     <t>Projet:</t>
@@ -152,6 +149,54 @@
   </si>
   <si>
     <t>Finalisation des user storie</t>
+  </si>
+  <si>
+    <t>Finalisation de la maquette</t>
+  </si>
+  <si>
+    <t>J'ai commencé à coder mon application en créant tout le design de l'application</t>
+  </si>
+  <si>
+    <t>J'ai remplis mon journal de travail + je l'ai imprimé</t>
+  </si>
+  <si>
+    <t>Bamert Mathieu</t>
+  </si>
+  <si>
+    <t>P_Bit_Ruisseau</t>
+  </si>
+  <si>
+    <t>Rajout de tout les fichiers.cs en commun dans mon code</t>
+  </si>
+  <si>
+    <t>Rajout de l'extension TagLib depuis les packages NugGet</t>
+  </si>
+  <si>
+    <t>Code de la classe Song avec le fichier Isong</t>
+  </si>
+  <si>
+    <t>Code de la méthode Song dans le fichier Song. Avec le lien avec path.</t>
+  </si>
+  <si>
+    <t>J'arrivais pas à rajouter des lignes à mon gridview et après j'ai appris que ça le faisait automatiquement</t>
+  </si>
+  <si>
+    <t>Rajout de la méthode choix du fichier et faire qu'on puisse sélectionner un dossier</t>
+  </si>
+  <si>
+    <t>Quand on a sélectionne un fichier on affiche les un message et le path du dossier</t>
+  </si>
+  <si>
+    <t>Modification du nom dans le fichier Form1.designer.cs pour que quand on clique sur le bouton ça fais la méthode ChoixDossier</t>
+  </si>
+  <si>
+    <t>Rajout d'un dossier avec des fichier mp3</t>
+  </si>
+  <si>
+    <t>Création du fichier P2PProtocole pour simuler les communications réseau entre des "médiathèques"</t>
+  </si>
+  <si>
+    <t>Code pour voir dans le datagridview les données</t>
   </si>
 </sst>
 </file>
@@ -291,6 +336,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -613,10 +659,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -626,6 +668,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,13 +1218,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>45</c:v>
@@ -2027,13 +2073,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.60869565217391308</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72222222222222221</c:v>
+                  <c:v>0.32608695652173914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4217,9 +4263,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4251,33 +4297,35 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="85" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="64"/>
-    </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>4 heures 30 minutes</v>
+        <v>11 heures 30 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="65"/>
     </row>
@@ -4285,46 +4333,46 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>270</v>
+        <v>690</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="86"/>
+      <c r="C5" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="85"/>
     </row>
     <row r="6" spans="1:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -4342,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -4362,14 +4410,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="39"/>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -4393,14 +4441,14 @@
         <v>0</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="40"/>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -4422,14 +4470,14 @@
         <v>5</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="39"/>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -4451,14 +4499,14 @@
         <v>45</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="40"/>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -4480,14 +4528,14 @@
         <v>55</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="39"/>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -4509,10 +4557,10 @@
         <v>30</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="40"/>
       <c r="N13">
@@ -4535,10 +4583,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="39"/>
       <c r="N14">
@@ -4549,15 +4597,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="str">
+      <c r="A15" s="63">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="B15" s="34">
+        <v>45982</v>
+      </c>
       <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="23"/>
+      <c r="D15" s="36">
+        <v>45</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="N15">
         <v>8</v>
@@ -4567,194 +4623,314 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="str">
+      <c r="A16" s="62">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="B16" s="30">
+        <v>45982</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>35</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="str">
+      <c r="A17" s="63">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="B17" s="34">
+        <v>45982</v>
+      </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="23"/>
+      <c r="D17" s="36">
+        <v>10</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="40"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="str">
+      <c r="A18" s="62">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="30"/>
+        <v>48</v>
+      </c>
+      <c r="B18" s="30">
+        <v>45989</v>
+      </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="23"/>
+      <c r="D18" s="32">
+        <v>30</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="G18" s="39"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="str">
+      <c r="A19" s="63">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="B19" s="34">
+        <v>45989</v>
+      </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="23"/>
+      <c r="D19" s="36">
+        <v>10</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="str">
+      <c r="A20" s="62">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="30"/>
+        <v>48</v>
+      </c>
+      <c r="B20" s="30">
+        <v>45989</v>
+      </c>
       <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="32">
+        <v>30</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="str">
+      <c r="A21" s="63">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="B21" s="34">
+        <v>45989</v>
+      </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="23"/>
+      <c r="D21" s="36">
+        <v>30</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="str">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="62">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="30"/>
+        <v>48</v>
+      </c>
+      <c r="B22" s="30">
+        <v>45989</v>
+      </c>
       <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="23"/>
+      <c r="D22" s="32">
+        <v>25</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="str">
+      <c r="A23" s="63">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="B23" s="34">
+        <v>45989</v>
+      </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="23"/>
+      <c r="D23" s="36">
+        <v>10</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="str">
+      <c r="A24" s="62">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="30"/>
+        <v>49</v>
+      </c>
+      <c r="B24" s="30">
+        <v>45996</v>
+      </c>
       <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="32">
+        <v>30</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="str">
+      <c r="A25" s="63">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="B25" s="34">
+        <v>45996</v>
+      </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="23"/>
+      <c r="D25" s="36">
+        <v>15</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="str">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="30"/>
+        <v>49</v>
+      </c>
+      <c r="B26" s="30">
+        <v>45996</v>
+      </c>
       <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="23"/>
+      <c r="D26" s="32">
+        <v>15</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="str">
+      <c r="A27" s="63">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="B27" s="34">
+        <v>45996</v>
+      </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="84"/>
+      <c r="D27" s="36">
+        <v>30</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="str">
+      <c r="A28" s="62">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="30"/>
+        <v>49</v>
+      </c>
+      <c r="B28" s="30">
+        <v>45996</v>
+      </c>
       <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="22"/>
+      <c r="D28" s="32">
+        <v>25</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="str">
+      <c r="A29" s="63">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="B29" s="34">
+        <v>45996</v>
+      </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="36">
+        <v>10</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="str">
+      <c r="A30" s="62">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="30"/>
+        <v>49</v>
+      </c>
+      <c r="B30" s="30">
+        <v>45996</v>
+      </c>
       <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
+      <c r="D30" s="32">
+        <v>10</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" s="23"/>
       <c r="G30" s="39"/>
     </row>
@@ -10831,7 +11007,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -10861,13 +11037,13 @@
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E2" s="66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="68">
         <v>90</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="44"/>
@@ -10880,42 +11056,42 @@
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E4" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="66" t="s">
         <v>21</v>
-      </c>
-      <c r="L4" s="66" t="s">
-        <v>22</v>
       </c>
       <c r="M4" s="41"/>
       <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="41" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="G5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="N5" s="50" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -10958,15 +11134,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10974,11 +11150,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>0 h 30 min</v>
+        <v>7 h 00 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.1111111111111111</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11036,11 +11212,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11048,11 +11224,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>3 h 15 min</v>
+        <v>3 h 45 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.72222222222222221</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11080,7 +11256,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="79" t="str">
         <f t="shared" ref="F10" si="4">QUOTIENT(SUM(A10:B10),60)&amp;" h "&amp;TEXT(MOD(SUM(A10:B10),60), "00")&amp;" min"</f>
@@ -11088,10 +11264,10 @@
       </c>
       <c r="G10" s="80">
         <f>SUM(A10:B10)/$C$11</f>
-        <v>0.16666666666666666</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -11104,29 +11280,29 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>270</v>
+        <v>690</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>4 h 30 min</v>
+        <v>11 h 30 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.05</v>
+        <v>0.12777777777777777</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="60">

--- a/Doc/Journal-de-Travail_BamertMathieu.xlsx
+++ b/Doc/Journal-de-Travail_BamertMathieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pv23aha\Documents\GitHub\P_321_BitRuisseau\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFADB53-3E03-4EEF-85AA-F8FFE6FDAB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47660B1-915E-400F-8AFB-E6010C9108F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -198,6 +198,21 @@
   <si>
     <t>Code pour voir dans le datagridview les données</t>
   </si>
+  <si>
+    <t>Rmeplissage du jdt</t>
+  </si>
+  <si>
+    <t>Simuler les communication entre les médiathèque</t>
+  </si>
+  <si>
+    <t>Modification du design de l'application</t>
+  </si>
+  <si>
+    <t>Suppression du fichier p2pp</t>
+  </si>
+  <si>
+    <t>Rajout de la classe basicsong</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +225,7 @@
     <numFmt numFmtId="167" formatCode="dd\ mmm"/>
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -338,6 +353,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -471,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -659,6 +681,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -669,7 +695,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1218,7 +1244,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>420</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2073,13 +2099,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60869565217391308</c:v>
+                  <c:v>0.64935064935064934</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32608695652173914</c:v>
+                  <c:v>0.29220779220779219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4264,8 +4290,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4297,15 +4323,15 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4314,13 +4340,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>11 heures 30 minutes</v>
+        <v>12 heures 50 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4337,20 +4363,20 @@
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="86"/>
     </row>
     <row r="6" spans="1:15" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
@@ -4871,7 +4897,7 @@
       <c r="E27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="87" t="s">
+      <c r="F27" s="84" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="40"/>
@@ -4931,123 +4957,179 @@
       <c r="E30" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="23"/>
+      <c r="F30" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="str">
+      <c r="A31" s="63">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B31" s="34">
+        <v>46003</v>
+      </c>
       <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="22"/>
+      <c r="D31" s="36">
+        <v>30</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="str">
+      <c r="A32" s="62">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="B32" s="30">
+        <v>46003</v>
+      </c>
       <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="23"/>
+      <c r="D32" s="32">
+        <v>20</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>54</v>
+      </c>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="str">
+      <c r="A33" s="63">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B33" s="34">
+        <v>46003</v>
+      </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="22"/>
+      <c r="D33" s="36">
+        <v>5</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="str">
+      <c r="A34" s="62">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="B34" s="30">
+        <v>46003</v>
+      </c>
       <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="22"/>
+      <c r="D34" s="32">
+        <v>25</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="str">
+      <c r="A35" s="63">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B35" s="34">
+        <v>46003</v>
+      </c>
       <c r="C35" s="35"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
+      <c r="E35" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F35" s="23"/>
       <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="str">
+      <c r="A36" s="62">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="B36" s="30">
+        <v>46003</v>
+      </c>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
+      <c r="E36" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="F36" s="22"/>
       <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="str">
+      <c r="A37" s="63">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B37" s="34">
+        <v>46003</v>
+      </c>
       <c r="C37" s="35"/>
       <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
+      <c r="E37" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F37" s="22"/>
       <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="62" t="str">
+      <c r="A38" s="62">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="B38" s="30">
+        <v>46003</v>
+      </c>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
+      <c r="E38" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="F38" s="22"/>
       <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="str">
+      <c r="A39" s="63">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B39" s="34">
+        <v>46003</v>
+      </c>
       <c r="C39" s="35"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
+      <c r="E39" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="F39" s="22"/>
       <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="str">
+      <c r="A40" s="62">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
-        <v/>
-      </c>
-      <c r="B40" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="B40" s="30">
+        <v>46010</v>
+      </c>
       <c r="C40" s="31"/>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
@@ -11138,11 +11220,11 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11150,11 +11232,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>7 h 00 min</v>
+        <v>8 h 20 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.60869565217391308</v>
+        <v>0.64935064935064934</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11228,7 +11310,7 @@
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.32608695652173914</v>
+        <v>0.29220779220779219</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11264,7 +11346,7 @@
       </c>
       <c r="G10" s="80">
         <f>SUM(A10:B10)/$C$11</f>
-        <v>6.5217391304347824E-2</v>
+        <v>5.844155844155844E-2</v>
       </c>
       <c r="L10" s="69" t="s">
         <v>17</v>
@@ -11284,22 +11366,22 @@
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>11 h 30 min</v>
+        <v>12 h 50 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.12777777777777777</v>
+        <v>0.1425925925925926</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>28</v>
@@ -11343,6 +11425,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e12e7c6bdfb75a7d9b849cfc56f051f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd34f7c8cce3bbcb7db5b2c1b48d4341" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11537,17 +11630,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11558,6 +11640,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4B38329-2CCE-448E-AD8B-127B28816FC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11576,17 +11669,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
